--- a/August14PredictionsMLB.xlsx
+++ b/August14PredictionsMLB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reisn\Desktop\NHL Betting\MLB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28805279-EF83-44C1-AB51-5DAE972EB737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEF2613-3154-4BA2-A7F2-2B9F68BB2C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="829" activeTab="1" xr2:uid="{F4371B28-B0A6-476C-81C1-BB99AAB25DFC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="829" xr2:uid="{F4371B28-B0A6-476C-81C1-BB99AAB25DFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="229">
   <si>
     <t>TEAM</t>
   </si>
@@ -834,7 +834,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -856,6 +856,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,7 +933,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -985,7 +997,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1323,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AD9D2F-4AAF-4632-8EF4-EE536C1A00BA}">
   <dimension ref="A1:AT128"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2:AE31"/>
+    <sheetView tabSelected="1" topLeftCell="Q64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AF88" sqref="AF88:AQ88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9480,23 +9495,23 @@
       <c r="U78" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="V78" s="26" t="str">
+      <c r="V78" s="31" t="str">
         <f t="shared" ref="V78:V92" si="48">IF(SUM(COUNTIF(I38, L78), COUNTIF(O38, L78), COUNTIF(I58, L78), COUNTIF(O58, L78), COUNTIF(I78, L78)) &gt; SUM(COUNTIF(I38, P78), COUNTIF(O38, P78), COUNTIF(I58, P78), COUNTIF(O58, P78), COUNTIF(I78, P78)), L78, IF(SUM(COUNTIF(I38, L78), COUNTIF(O38, L78), COUNTIF(I58, L78), COUNTIF(O58, L78), COUNTIF(I78, L78)) &lt; SUM(COUNTIF(I38, P78), COUNTIF(O38, P78), COUNTIF(I58, P78), COUNTIF(O58, P78), COUNTIF(I78, P78)), P78, "Tie"))</f>
         <v>MIN</v>
       </c>
-      <c r="W78" s="27">
+      <c r="W78" s="32">
         <f t="shared" ref="W78:W92" si="49">(COUNTIF(I38, V78) + COUNTIF(O38, V78) + COUNTIF(I58, V78) + COUNTIF(O58, V78) + COUNTIF(I78, V78))/5</f>
         <v>0.6</v>
       </c>
-      <c r="X78" s="27">
+      <c r="X78" s="32">
         <f>IF(W78=1, 5, IF(W78=0.8, 4, IF(W78=0.6, 3, IF(W78=0.4, 2, IF(W78=0.2, 1, 0)))))</f>
         <v>3</v>
       </c>
-      <c r="Y78" s="27">
+      <c r="Y78" s="32">
         <f>((Q78+N78)/2)-((M78+R78)/2)</f>
         <v>0.375</v>
       </c>
-      <c r="Z78" s="27">
+      <c r="Z78" s="32">
         <f>IF(OR(AND(P78=V78, Y78&gt;1.5), AND(P78&lt;&gt;V78, Y78&lt;-1.5)), 2.5,
    IF(OR(AND(P78=V78, Y78&gt;1), AND(P78&lt;&gt;V78, Y78&lt;-1)), 2,
    IF(OR(AND(P78=V78, Y78&gt;0.66), AND(P78&lt;&gt;V78, Y78&lt;-0.66)), 1.5,
@@ -9504,11 +9519,11 @@
    IF(OR(AND(P78=V78, Y78&gt;0), AND(P78&lt;&gt;V78, Y78&lt;0)), 0.5, 0)))))</f>
         <v>1</v>
       </c>
-      <c r="AA78" s="27">
+      <c r="AA78" s="32">
         <f>S78-O78</f>
         <v>1.1130000000000004</v>
       </c>
-      <c r="AB78" s="27">
+      <c r="AB78" s="32">
         <f>IF(OR(AND(P78=V78, Y78&gt;1.5), AND(P78&lt;&gt;V78, AA78&lt;-1.5)), 2.5,
    IF(OR(AND(P78=V78, Y78&gt;1), AND(P78&lt;&gt;V78, AA78&lt;-1)), 2,
    IF(OR(AND(P78=V78, Y78&gt;0.66), AND(P78&lt;&gt;V78, AA78&lt;-0.66)), 1.5,
@@ -9516,59 +9531,63 @@
    IF(OR(AND(P78=V78, Y78&gt;0), AND(P78&lt;&gt;V78, AA78&lt;0)), 0.5, 0)))))</f>
         <v>1</v>
       </c>
-      <c r="AC78" s="27">
+      <c r="AC78" s="32">
         <f>SUM(IF(ISNUMBER(X78), X78, 0), IF(ISNUMBER(Z78), Z78, 0), IF(ISNUMBER(AB78), AB78, 0))</f>
         <v>5</v>
       </c>
-      <c r="AD78" s="27"/>
+      <c r="AD78" s="32" t="s">
+        <v>184</v>
+      </c>
       <c r="AE78" s="26">
         <v>8.5</v>
       </c>
-      <c r="AF78" s="26" t="str">
+      <c r="AF78" s="31" t="str">
         <f t="shared" ref="AF78:AF92" si="50">IF(COUNTIF(J38, "&gt;" &amp; AE78) + COUNTIF(P38, "&gt;" &amp; AE78) + COUNTIF(J58, "&gt;" &amp; AE78) + COUNTIF(J78, "&gt;" &amp; AE78) + COUNTIF(P58, "&gt;" &amp; AE78) &gt;= 3, "Over", "Under")</f>
         <v>Over</v>
       </c>
-      <c r="AG78" s="27">
+      <c r="AG78" s="32">
         <f t="shared" ref="AG78:AG92" si="51">IF(AF78="Over",((COUNTIF(J38,"&gt;"&amp;AE78)+COUNTIF(P38,"&gt;"&amp;AE78)+COUNTIF(J58,"&gt;"&amp;AE78)+COUNTIF(J78,"&gt;"&amp;AE78)+COUNTIF(P58,"&gt;"&amp;AE78))/5),((COUNTIF(J38,"&lt;="&amp;AE78)+COUNTIF(P38,"&lt;="&amp;AE78)+COUNTIF(J58,"&lt;="&amp;AE78)+COUNTIF(J78,"&lt;="&amp;AE78)+COUNTIF(P58,"&lt;="&amp;AE78))/5))</f>
         <v>1</v>
       </c>
-      <c r="AH78" s="27">
+      <c r="AH78" s="32">
         <f>J38</f>
         <v>9.9591789079436666</v>
       </c>
-      <c r="AI78" s="27">
+      <c r="AI78" s="32">
         <f>P38</f>
         <v>10.940615770502717</v>
       </c>
-      <c r="AJ78" s="27">
+      <c r="AJ78" s="32">
         <f>P58</f>
         <v>8.9777420453846144</v>
       </c>
-      <c r="AK78" s="27">
+      <c r="AK78" s="32">
         <f t="shared" ref="AK78:AK93" si="52">IF(AG78=1, 5, IF(AG78=0.8, 4, IF(AG78=0.6, 3, IF(AG78=0.4, 2, IF(AG78=0.2, 1, 0)))))</f>
         <v>5</v>
       </c>
-      <c r="AL78" s="27">
+      <c r="AL78" s="32">
         <f t="shared" ref="AL78:AL93" si="53">(((N78+Q78)/2)+((M78+R78)/2))-AE78</f>
         <v>1.625</v>
       </c>
-      <c r="AM78" s="27">
+      <c r="AM78" s="32">
         <f t="shared" ref="AM78:AM93" si="54">IF(OR(AND(AF78="Over",(((N78+Q78)/2)+((M78+R78)/2))&gt;AE78),AND(AF78="Under",(((N78+Q78)/2)+((M78+R78)/2))&lt;AE78)),IF(OR(AL78&gt;2,AL78&lt;-2),2.5,IF(OR(AND(AL78&lt;2,AL78&gt;1),AND(AL78&gt;-2,AL78&lt;-1)),1.25,IF(OR(AND(AL78&lt;1,AL78&gt;0),AND(AL78&gt;-1,AL78&lt;0)),0,0))),0)</f>
         <v>1.25</v>
       </c>
-      <c r="AN78" s="27">
+      <c r="AN78" s="32">
         <f t="shared" ref="AN78:AN93" si="55">O78+S78</f>
         <v>9.5530000000000008</v>
       </c>
-      <c r="AO78" s="27">
+      <c r="AO78" s="32">
         <f t="shared" ref="AO78:AO93" si="56">IF(OR(AND(AF78="Over",AN78&gt;AE78),AND(AF78="Under",AN78&lt;AE78)),IF(OR(AE78-AN78&gt;2,AE78-AN78&lt;-2),2.5,IF(OR(AND(AE78-AN78&lt;2,AE78-AN78&gt;1),AND(AE78-AN78&gt;-2,AE78-AN78&lt;-1)),1.25,IF(OR(AND(AE78-AN78&lt;1,AE78-AN78&gt;0),AND(AE78-AN78&gt;-1,AE78-AN78&lt;0)),0,0))),0)</f>
         <v>1.25</v>
       </c>
-      <c r="AP78" s="27">
+      <c r="AP78" s="32">
         <f>SUM(IF(ISNUMBER(AK78), AK78, 0), IF(ISNUMBER(AM78), AM78, 0), IF(ISNUMBER(AO78), AO78, 0))</f>
         <v>7.5</v>
       </c>
-      <c r="AQ78" s="26"/>
+      <c r="AQ78" s="31">
+        <v>5</v>
+      </c>
       <c r="AT78"/>
     </row>
     <row r="79" spans="1:46" x14ac:dyDescent="0.3">
@@ -9636,23 +9655,23 @@
       <c r="U79" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="V79" s="28" t="str">
+      <c r="V79" s="33" t="str">
         <f t="shared" si="48"/>
         <v>ARI</v>
       </c>
-      <c r="W79" s="31">
+      <c r="W79" s="34">
         <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="X79" s="31">
+      <c r="X79" s="34">
         <f t="shared" ref="X79:X92" si="58">IF(W79=1, 5, IF(W79=0.8, 4, IF(W79=0.6, 3, IF(W79=0.4, 2, IF(W79=0.2, 1, 0)))))</f>
         <v>5</v>
       </c>
-      <c r="Y79" s="31">
+      <c r="Y79" s="34">
         <f t="shared" ref="Y79:Y92" si="59">((Q79+N79)/2)-((M79+R79)/2)</f>
         <v>2</v>
       </c>
-      <c r="Z79" s="31">
+      <c r="Z79" s="34">
         <f t="shared" ref="Z79:Z92" si="60">IF(OR(AND(P79=V79, Y79&gt;1.5), AND(P79&lt;&gt;V79, Y79&lt;-1.5)), 2.5,
    IF(OR(AND(P79=V79, Y79&gt;1), AND(P79&lt;&gt;V79, Y79&lt;-1)), 2,
    IF(OR(AND(P79=V79, Y79&gt;0.66), AND(P79&lt;&gt;V79, Y79&lt;-0.66)), 1.5,
@@ -9660,11 +9679,11 @@
    IF(OR(AND(P79=V79, Y79&gt;0), AND(P79&lt;&gt;V79, Y79&lt;0)), 0.5, 0)))))</f>
         <v>2.5</v>
       </c>
-      <c r="AA79" s="31">
+      <c r="AA79" s="34">
         <f>S79-O79</f>
         <v>2.3332999999999999</v>
       </c>
-      <c r="AB79" s="31">
+      <c r="AB79" s="34">
         <f t="shared" ref="AB79:AB92" si="61">IF(OR(AND(P79=V79, Y79&gt;1.5), AND(P79&lt;&gt;V79, AA79&lt;-1.5)), 2.5,
    IF(OR(AND(P79=V79, Y79&gt;1), AND(P79&lt;&gt;V79, AA79&lt;-1)), 2,
    IF(OR(AND(P79=V79, Y79&gt;0.66), AND(P79&lt;&gt;V79, AA79&lt;-0.66)), 1.5,
@@ -9672,59 +9691,63 @@
    IF(OR(AND(P79=V79, Y79&gt;0), AND(P79&lt;&gt;V79, AA79&lt;0)), 0.5, 0)))))</f>
         <v>2.5</v>
       </c>
-      <c r="AC79" s="31">
+      <c r="AC79" s="34">
         <f t="shared" ref="AC79:AC92" si="62">SUM(IF(ISNUMBER(X79), X79, 0), IF(ISNUMBER(Z79), Z79, 0), IF(ISNUMBER(AB79), AB79, 0))</f>
         <v>10</v>
       </c>
-      <c r="AD79" s="27"/>
+      <c r="AD79" s="34" t="s">
+        <v>142</v>
+      </c>
       <c r="AE79" s="26">
         <v>9.5</v>
       </c>
-      <c r="AF79" s="26" t="str">
+      <c r="AF79" s="33" t="str">
         <f t="shared" si="50"/>
         <v>Over</v>
       </c>
-      <c r="AG79" s="27">
+      <c r="AG79" s="34">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
-      <c r="AH79" s="27">
+      <c r="AH79" s="34">
         <f t="shared" ref="AH79:AH93" si="63">J39</f>
         <v>10.685441562462657</v>
       </c>
-      <c r="AI79" s="27">
+      <c r="AI79" s="34">
         <f t="shared" ref="AI79:AI93" si="64">P39</f>
         <v>11.153384087777582</v>
       </c>
-      <c r="AJ79" s="27">
+      <c r="AJ79" s="34">
         <f t="shared" ref="AJ79:AJ93" si="65">P59</f>
         <v>10.217499037147736</v>
       </c>
-      <c r="AK79" s="27">
+      <c r="AK79" s="34">
         <f t="shared" si="52"/>
         <v>5</v>
       </c>
-      <c r="AL79" s="27">
+      <c r="AL79" s="34">
         <f t="shared" si="53"/>
         <v>1.3000000000000007</v>
       </c>
-      <c r="AM79" s="27">
+      <c r="AM79" s="34">
         <f t="shared" si="54"/>
         <v>1.25</v>
       </c>
-      <c r="AN79" s="27">
+      <c r="AN79" s="34">
         <f t="shared" si="55"/>
         <v>9.6667000000000005</v>
       </c>
-      <c r="AO79" s="27">
+      <c r="AO79" s="34">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AP79" s="27">
+      <c r="AP79" s="34">
         <f t="shared" ref="AP79:AP92" si="66">SUM(IF(ISNUMBER(AK79), AK79, 0), IF(ISNUMBER(AM79), AM79, 0), IF(ISNUMBER(AO79), AO79, 0))</f>
         <v>6.25</v>
       </c>
-      <c r="AQ79" s="26"/>
+      <c r="AQ79" s="33">
+        <v>15</v>
+      </c>
       <c r="AT79"/>
     </row>
     <row r="80" spans="1:46" x14ac:dyDescent="0.3">
@@ -9792,87 +9815,91 @@
       <c r="U80" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="V80" s="28" t="str">
+      <c r="V80" s="33" t="str">
         <f t="shared" si="48"/>
         <v>SDP</v>
       </c>
-      <c r="W80" s="31">
+      <c r="W80" s="34">
         <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="X80" s="31">
+      <c r="X80" s="34">
         <f t="shared" si="58"/>
         <v>5</v>
       </c>
-      <c r="Y80" s="31">
+      <c r="Y80" s="34">
         <f t="shared" si="59"/>
         <v>1.6500000000000004</v>
       </c>
-      <c r="Z80" s="31">
+      <c r="Z80" s="34">
         <f t="shared" si="60"/>
         <v>2.5</v>
       </c>
-      <c r="AA80" s="31">
+      <c r="AA80" s="34">
         <f t="shared" ref="AA80:AA92" si="67">S80-O80</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="AB80" s="31">
+      <c r="AB80" s="34">
         <f t="shared" si="61"/>
         <v>2.5</v>
       </c>
-      <c r="AC80" s="31">
+      <c r="AC80" s="34">
         <f t="shared" si="62"/>
         <v>10</v>
       </c>
-      <c r="AD80" s="27"/>
+      <c r="AD80" s="34" t="s">
+        <v>173</v>
+      </c>
       <c r="AE80" s="26">
         <v>8.5</v>
       </c>
-      <c r="AF80" s="26" t="str">
+      <c r="AF80" s="33" t="str">
         <f t="shared" si="50"/>
         <v>Over</v>
       </c>
-      <c r="AG80" s="27">
+      <c r="AG80" s="34">
         <f t="shared" si="51"/>
         <v>0.6</v>
       </c>
-      <c r="AH80" s="27">
+      <c r="AH80" s="34">
         <f t="shared" si="63"/>
         <v>8.7531657261785636</v>
       </c>
-      <c r="AI80" s="27">
+      <c r="AI80" s="34">
         <f t="shared" si="64"/>
         <v>9.7866278700962539</v>
       </c>
-      <c r="AJ80" s="27">
+      <c r="AJ80" s="34">
         <f t="shared" si="65"/>
         <v>7.7197035822608724</v>
       </c>
-      <c r="AK80" s="27">
+      <c r="AK80" s="34">
         <f t="shared" si="52"/>
         <v>3</v>
       </c>
-      <c r="AL80" s="27">
+      <c r="AL80" s="34">
         <f t="shared" si="53"/>
         <v>0.5</v>
       </c>
-      <c r="AM80" s="27">
+      <c r="AM80" s="34">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="AN80" s="27">
+      <c r="AN80" s="34">
         <f t="shared" si="55"/>
         <v>8.4</v>
       </c>
-      <c r="AO80" s="27">
+      <c r="AO80" s="34">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AP80" s="27">
+      <c r="AP80" s="34">
         <f t="shared" si="66"/>
         <v>3</v>
       </c>
-      <c r="AQ80" s="26"/>
+      <c r="AQ80" s="33">
+        <v>10</v>
+      </c>
       <c r="AR80" s="18"/>
       <c r="AT80"/>
     </row>
@@ -9941,87 +9968,91 @@
       <c r="U81" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="V81" s="26" t="str">
+      <c r="V81" s="31" t="str">
         <f t="shared" si="48"/>
         <v>BOS</v>
       </c>
-      <c r="W81" s="27">
+      <c r="W81" s="32">
         <f t="shared" si="49"/>
         <v>0.6</v>
       </c>
-      <c r="X81" s="27">
+      <c r="X81" s="32">
         <f t="shared" si="58"/>
         <v>3</v>
       </c>
-      <c r="Y81" s="27">
+      <c r="Y81" s="32">
         <f t="shared" si="59"/>
         <v>0.54999999999999982</v>
       </c>
-      <c r="Z81" s="27">
+      <c r="Z81" s="32">
         <f t="shared" si="60"/>
         <v>1</v>
       </c>
-      <c r="AA81" s="27">
+      <c r="AA81" s="32">
         <f t="shared" si="67"/>
         <v>2.6000000000000005</v>
       </c>
-      <c r="AB81" s="27">
+      <c r="AB81" s="32">
         <f t="shared" si="61"/>
         <v>1</v>
       </c>
-      <c r="AC81" s="27">
+      <c r="AC81" s="32">
         <f t="shared" si="62"/>
         <v>5</v>
       </c>
-      <c r="AD81" s="27"/>
+      <c r="AD81" s="32" t="s">
+        <v>154</v>
+      </c>
       <c r="AE81" s="28">
         <v>9.5</v>
       </c>
-      <c r="AF81" s="28" t="str">
+      <c r="AF81" s="33" t="str">
         <f t="shared" si="50"/>
         <v>Over</v>
       </c>
-      <c r="AG81" s="31">
+      <c r="AG81" s="34">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
-      <c r="AH81" s="31">
+      <c r="AH81" s="34">
         <f t="shared" si="63"/>
         <v>11.45812858657926</v>
       </c>
-      <c r="AI81" s="31">
+      <c r="AI81" s="34">
         <f t="shared" si="64"/>
         <v>13.005662084806062</v>
       </c>
-      <c r="AJ81" s="31">
+      <c r="AJ81" s="34">
         <f t="shared" si="65"/>
         <v>9.9105950883524585</v>
       </c>
-      <c r="AK81" s="31">
+      <c r="AK81" s="34">
         <f t="shared" si="52"/>
         <v>5</v>
       </c>
-      <c r="AL81" s="31">
+      <c r="AL81" s="34">
         <f t="shared" si="53"/>
         <v>2.1000000000000014</v>
       </c>
-      <c r="AM81" s="31">
+      <c r="AM81" s="34">
         <f t="shared" si="54"/>
         <v>2.5</v>
       </c>
-      <c r="AN81" s="31">
+      <c r="AN81" s="34">
         <f t="shared" si="55"/>
         <v>11.8</v>
       </c>
-      <c r="AO81" s="31">
+      <c r="AO81" s="34">
         <f t="shared" si="56"/>
         <v>2.5</v>
       </c>
-      <c r="AP81" s="31">
+      <c r="AP81" s="34">
         <f t="shared" si="66"/>
         <v>10</v>
       </c>
-      <c r="AQ81" s="26"/>
+      <c r="AQ81" s="33">
+        <v>16</v>
+      </c>
       <c r="AT81"/>
     </row>
     <row r="82" spans="4:46" x14ac:dyDescent="0.3">
@@ -10089,87 +10120,91 @@
       <c r="U82" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="V82" s="26" t="str">
+      <c r="V82" s="33" t="str">
         <f t="shared" si="48"/>
         <v>BAL</v>
       </c>
-      <c r="W82" s="27">
+      <c r="W82" s="34">
         <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="X82" s="27">
+      <c r="X82" s="34">
         <f t="shared" si="58"/>
         <v>5</v>
       </c>
-      <c r="Y82" s="27">
+      <c r="Y82" s="34">
         <f t="shared" si="59"/>
         <v>0.55000000000000071</v>
       </c>
-      <c r="Z82" s="27">
+      <c r="Z82" s="34">
         <f t="shared" si="60"/>
         <v>1</v>
       </c>
-      <c r="AA82" s="27">
+      <c r="AA82" s="34">
         <f t="shared" si="67"/>
         <v>-2.6669999999999998</v>
       </c>
-      <c r="AB82" s="27">
+      <c r="AB82" s="34">
         <f t="shared" si="61"/>
         <v>1</v>
       </c>
-      <c r="AC82" s="27">
+      <c r="AC82" s="34">
         <f t="shared" si="62"/>
         <v>7</v>
       </c>
-      <c r="AD82" s="27"/>
+      <c r="AD82" s="34" t="s">
+        <v>186</v>
+      </c>
       <c r="AE82" s="26">
         <v>8.5</v>
       </c>
-      <c r="AF82" s="26" t="str">
+      <c r="AF82" s="31" t="str">
         <f t="shared" si="50"/>
         <v>Over</v>
       </c>
-      <c r="AG82" s="27">
+      <c r="AG82" s="32">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
-      <c r="AH82" s="27">
+      <c r="AH82" s="32">
         <f t="shared" si="63"/>
         <v>10.887738432159416</v>
       </c>
-      <c r="AI82" s="27">
+      <c r="AI82" s="32">
         <f t="shared" si="64"/>
         <v>11.251821345629939</v>
       </c>
-      <c r="AJ82" s="27">
+      <c r="AJ82" s="32">
         <f t="shared" si="65"/>
         <v>10.523655518688894</v>
       </c>
-      <c r="AK82" s="27">
+      <c r="AK82" s="32">
         <f t="shared" si="52"/>
         <v>5</v>
       </c>
-      <c r="AL82" s="27">
+      <c r="AL82" s="32">
         <f t="shared" si="53"/>
         <v>2.4499999999999993</v>
       </c>
-      <c r="AM82" s="27">
+      <c r="AM82" s="32">
         <f t="shared" si="54"/>
         <v>2.5</v>
       </c>
-      <c r="AN82" s="27">
+      <c r="AN82" s="32">
         <f t="shared" si="55"/>
         <v>9.3330000000000002</v>
       </c>
-      <c r="AO82" s="27">
+      <c r="AO82" s="32">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AP82" s="27">
+      <c r="AP82" s="32">
         <f t="shared" si="66"/>
         <v>7.5</v>
       </c>
-      <c r="AQ82" s="26"/>
+      <c r="AQ82" s="31">
+        <v>5</v>
+      </c>
       <c r="AT82"/>
     </row>
     <row r="83" spans="4:46" x14ac:dyDescent="0.3">
@@ -10237,87 +10272,91 @@
       <c r="U83" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="V83" s="26" t="str">
+      <c r="V83" s="31" t="str">
         <f t="shared" si="48"/>
         <v>CHC</v>
       </c>
-      <c r="W83" s="27">
+      <c r="W83" s="32">
         <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="X83" s="27">
+      <c r="X83" s="32">
         <f t="shared" si="58"/>
         <v>5</v>
       </c>
-      <c r="Y83" s="27">
+      <c r="Y83" s="32">
         <f t="shared" si="59"/>
         <v>-0.47500000000000009</v>
       </c>
-      <c r="Z83" s="27">
+      <c r="Z83" s="32">
         <f t="shared" si="60"/>
         <v>1</v>
       </c>
-      <c r="AA83" s="27">
+      <c r="AA83" s="32">
         <f t="shared" si="67"/>
         <v>1</v>
       </c>
-      <c r="AB83" s="27">
+      <c r="AB83" s="32">
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="AC83" s="27">
+      <c r="AC83" s="32">
         <f t="shared" si="62"/>
         <v>6</v>
       </c>
-      <c r="AD83" s="27"/>
+      <c r="AD83" s="32" t="s">
+        <v>183</v>
+      </c>
       <c r="AE83" s="26">
         <v>8.5</v>
       </c>
-      <c r="AF83" s="26" t="str">
+      <c r="AF83" s="31" t="str">
         <f t="shared" si="50"/>
         <v>Over</v>
       </c>
-      <c r="AG83" s="27">
+      <c r="AG83" s="32">
         <f t="shared" si="51"/>
         <v>0.8</v>
       </c>
-      <c r="AH83" s="27">
+      <c r="AH83" s="32">
         <f t="shared" si="63"/>
         <v>8.6966445561374961</v>
       </c>
-      <c r="AI83" s="27">
+      <c r="AI83" s="32">
         <f t="shared" si="64"/>
         <v>8.9378793810584547</v>
       </c>
-      <c r="AJ83" s="27">
+      <c r="AJ83" s="32">
         <f t="shared" si="65"/>
         <v>8.455409731216541</v>
       </c>
-      <c r="AK83" s="27">
+      <c r="AK83" s="32">
         <f t="shared" si="52"/>
         <v>4</v>
       </c>
-      <c r="AL83" s="27">
+      <c r="AL83" s="32">
         <f t="shared" si="53"/>
         <v>-7.4999999999999289E-2</v>
       </c>
-      <c r="AM83" s="27">
+      <c r="AM83" s="32">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="AN83" s="27">
+      <c r="AN83" s="32">
         <f t="shared" si="55"/>
         <v>10</v>
       </c>
-      <c r="AO83" s="27">
+      <c r="AO83" s="32">
         <f t="shared" si="56"/>
         <v>1.25</v>
       </c>
-      <c r="AP83" s="27">
+      <c r="AP83" s="32">
         <f t="shared" si="66"/>
         <v>5.25</v>
       </c>
-      <c r="AQ83" s="26"/>
+      <c r="AQ83" s="31">
+        <v>7</v>
+      </c>
       <c r="AT83"/>
     </row>
     <row r="84" spans="4:46" x14ac:dyDescent="0.3">
@@ -10385,87 +10424,91 @@
       <c r="U84" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="V84" s="26" t="str">
+      <c r="V84" s="31" t="str">
         <f t="shared" si="48"/>
         <v>MIA</v>
       </c>
-      <c r="W84" s="27">
+      <c r="W84" s="32">
         <f t="shared" si="49"/>
         <v>0.8</v>
       </c>
-      <c r="X84" s="27">
+      <c r="X84" s="32">
         <f t="shared" si="58"/>
         <v>4</v>
       </c>
-      <c r="Y84" s="27">
+      <c r="Y84" s="32">
         <f t="shared" si="59"/>
         <v>-0.54999999999999982</v>
       </c>
-      <c r="Z84" s="27">
+      <c r="Z84" s="32">
         <f t="shared" si="60"/>
         <v>1</v>
       </c>
-      <c r="AA84" s="27">
+      <c r="AA84" s="32">
         <f t="shared" si="67"/>
         <v>0.5</v>
       </c>
-      <c r="AB84" s="27">
+      <c r="AB84" s="32">
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="AC84" s="27">
+      <c r="AC84" s="32">
         <f t="shared" si="62"/>
         <v>5</v>
       </c>
-      <c r="AD84" s="27"/>
+      <c r="AD84" s="32" t="s">
+        <v>151</v>
+      </c>
       <c r="AE84" s="26">
         <v>8.5</v>
       </c>
-      <c r="AF84" s="26" t="str">
+      <c r="AF84" s="33" t="str">
         <f t="shared" si="50"/>
         <v>Over</v>
       </c>
-      <c r="AG84" s="27">
+      <c r="AG84" s="34">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
-      <c r="AH84" s="27">
+      <c r="AH84" s="34">
         <f t="shared" si="63"/>
         <v>9.5416846608844068</v>
       </c>
-      <c r="AI84" s="27">
+      <c r="AI84" s="34">
         <f t="shared" si="64"/>
         <v>10.297382191600363</v>
       </c>
-      <c r="AJ84" s="27">
+      <c r="AJ84" s="34">
         <f t="shared" si="65"/>
         <v>8.7859871301684507</v>
       </c>
-      <c r="AK84" s="27">
+      <c r="AK84" s="34">
         <f t="shared" si="52"/>
         <v>5</v>
       </c>
-      <c r="AL84" s="27">
+      <c r="AL84" s="34">
         <f t="shared" si="53"/>
         <v>1.1000000000000014</v>
       </c>
-      <c r="AM84" s="27">
+      <c r="AM84" s="34">
         <f t="shared" si="54"/>
         <v>1.25</v>
       </c>
-      <c r="AN84" s="27">
+      <c r="AN84" s="34">
         <f t="shared" si="55"/>
         <v>8.75</v>
       </c>
-      <c r="AO84" s="27">
+      <c r="AO84" s="34">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AP84" s="27">
+      <c r="AP84" s="34">
         <f t="shared" si="66"/>
         <v>6.25</v>
       </c>
-      <c r="AQ84" s="26"/>
+      <c r="AQ84" s="33">
+        <v>14</v>
+      </c>
       <c r="AT84"/>
     </row>
     <row r="85" spans="4:46" x14ac:dyDescent="0.3">
@@ -10533,87 +10576,91 @@
       <c r="U85" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="V85" s="26" t="str">
+      <c r="V85" s="31" t="str">
         <f t="shared" si="48"/>
         <v>SEA</v>
       </c>
-      <c r="W85" s="27">
+      <c r="W85" s="32">
         <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="X85" s="27">
+      <c r="X85" s="32">
         <f t="shared" si="58"/>
         <v>5</v>
       </c>
-      <c r="Y85" s="27">
+      <c r="Y85" s="32">
         <f t="shared" si="59"/>
         <v>-0.39999999999999947</v>
       </c>
-      <c r="Z85" s="27">
+      <c r="Z85" s="32">
         <f t="shared" si="60"/>
         <v>1</v>
       </c>
-      <c r="AA85" s="27">
+      <c r="AA85" s="32">
         <f t="shared" si="67"/>
         <v>4.75</v>
       </c>
-      <c r="AB85" s="27">
+      <c r="AB85" s="32">
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="AC85" s="27">
+      <c r="AC85" s="32">
         <f t="shared" si="62"/>
         <v>6</v>
       </c>
-      <c r="AD85" s="27"/>
+      <c r="AD85" s="32" t="s">
+        <v>133</v>
+      </c>
       <c r="AE85" s="26">
         <v>8.5</v>
       </c>
-      <c r="AF85" s="26" t="str">
+      <c r="AF85" s="33" t="str">
         <f t="shared" si="50"/>
         <v>Under</v>
       </c>
-      <c r="AG85" s="27">
+      <c r="AG85" s="34">
         <f t="shared" si="51"/>
         <v>0.6</v>
       </c>
-      <c r="AH85" s="27">
+      <c r="AH85" s="34">
         <f t="shared" si="63"/>
         <v>8.4530729164926655</v>
       </c>
-      <c r="AI85" s="27">
+      <c r="AI85" s="34">
         <f t="shared" si="64"/>
         <v>8.8308968233344523</v>
       </c>
-      <c r="AJ85" s="27">
+      <c r="AJ85" s="34">
         <f t="shared" si="65"/>
         <v>8.0752490096508804</v>
       </c>
-      <c r="AK85" s="27">
+      <c r="AK85" s="34">
         <f t="shared" si="52"/>
         <v>3</v>
       </c>
-      <c r="AL85" s="27">
+      <c r="AL85" s="34">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="AM85" s="27">
+      <c r="AM85" s="34">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="AN85" s="27">
+      <c r="AN85" s="34">
         <f t="shared" si="55"/>
         <v>9.25</v>
       </c>
-      <c r="AO85" s="27">
+      <c r="AO85" s="34">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AP85" s="27">
+      <c r="AP85" s="34">
         <f t="shared" si="66"/>
         <v>3</v>
       </c>
-      <c r="AQ85" s="26"/>
+      <c r="AQ85" s="33">
+        <v>5</v>
+      </c>
       <c r="AT85"/>
     </row>
     <row r="86" spans="4:46" x14ac:dyDescent="0.3">
@@ -10681,87 +10728,91 @@
       <c r="U86" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="V86" s="28" t="str">
+      <c r="V86" s="33" t="str">
         <f t="shared" si="48"/>
         <v>CIN</v>
       </c>
-      <c r="W86" s="31">
+      <c r="W86" s="34">
         <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="X86" s="31">
+      <c r="X86" s="34">
         <f t="shared" si="58"/>
         <v>5</v>
       </c>
-      <c r="Y86" s="31">
+      <c r="Y86" s="34">
         <f t="shared" si="59"/>
         <v>1.0249999999999995</v>
       </c>
-      <c r="Z86" s="31">
+      <c r="Z86" s="34">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="AA86" s="31">
+      <c r="AA86" s="34">
         <f t="shared" si="67"/>
         <v>1.222</v>
       </c>
-      <c r="AB86" s="31">
+      <c r="AB86" s="34">
         <f t="shared" si="61"/>
         <v>2</v>
       </c>
-      <c r="AC86" s="31">
+      <c r="AC86" s="34">
         <f t="shared" si="62"/>
         <v>9</v>
       </c>
-      <c r="AD86" s="27"/>
+      <c r="AD86" s="34" t="s">
+        <v>144</v>
+      </c>
       <c r="AE86" s="26">
         <v>9.5</v>
       </c>
-      <c r="AF86" s="26" t="str">
+      <c r="AF86" s="31" t="str">
         <f t="shared" si="50"/>
         <v>Under</v>
       </c>
-      <c r="AG86" s="27">
+      <c r="AG86" s="32">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
-      <c r="AH86" s="27">
+      <c r="AH86" s="32">
         <f t="shared" si="63"/>
         <v>8.5164509863897528</v>
       </c>
-      <c r="AI86" s="27">
+      <c r="AI86" s="32">
         <f t="shared" si="64"/>
         <v>9.0012904471967108</v>
       </c>
-      <c r="AJ86" s="27">
+      <c r="AJ86" s="32">
         <f t="shared" si="65"/>
         <v>8.0316115255827931</v>
       </c>
-      <c r="AK86" s="27">
+      <c r="AK86" s="32">
         <f t="shared" si="52"/>
         <v>5</v>
       </c>
-      <c r="AL86" s="27">
+      <c r="AL86" s="32">
         <f t="shared" si="53"/>
         <v>-0.875</v>
       </c>
-      <c r="AM86" s="27">
+      <c r="AM86" s="32">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="AN86" s="27">
+      <c r="AN86" s="32">
         <f t="shared" si="55"/>
         <v>7</v>
       </c>
-      <c r="AO86" s="27">
+      <c r="AO86" s="32">
         <f t="shared" si="56"/>
         <v>2.5</v>
       </c>
-      <c r="AP86" s="27">
+      <c r="AP86" s="32">
         <f t="shared" si="66"/>
         <v>7.5</v>
       </c>
-      <c r="AQ86" s="26"/>
+      <c r="AQ86" s="31">
+        <v>11</v>
+      </c>
       <c r="AT86"/>
     </row>
     <row r="87" spans="4:46" x14ac:dyDescent="0.3">
@@ -10829,87 +10880,91 @@
       <c r="U87" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="V87" s="26" t="str">
+      <c r="V87" s="33" t="str">
         <f t="shared" si="48"/>
         <v>HOU</v>
       </c>
-      <c r="W87" s="27">
+      <c r="W87" s="34">
         <f t="shared" si="49"/>
         <v>0.6</v>
       </c>
-      <c r="X87" s="27">
+      <c r="X87" s="34">
         <f t="shared" si="58"/>
         <v>3</v>
       </c>
-      <c r="Y87" s="27">
+      <c r="Y87" s="34">
         <f t="shared" si="59"/>
         <v>-0.20000000000000018</v>
       </c>
-      <c r="Z87" s="27">
+      <c r="Z87" s="34">
         <f t="shared" si="60"/>
         <v>0.5</v>
       </c>
-      <c r="AA87" s="27">
+      <c r="AA87" s="34">
         <f t="shared" si="67"/>
         <v>-0.20000000000000018</v>
       </c>
-      <c r="AB87" s="27">
+      <c r="AB87" s="34">
         <f t="shared" si="61"/>
         <v>0.5</v>
       </c>
-      <c r="AC87" s="27">
+      <c r="AC87" s="34">
         <f t="shared" si="62"/>
         <v>4</v>
       </c>
-      <c r="AD87" s="27"/>
+      <c r="AD87" s="34" t="s">
+        <v>145</v>
+      </c>
       <c r="AE87" s="26">
         <v>7.5</v>
       </c>
-      <c r="AF87" s="26" t="str">
+      <c r="AF87" s="33" t="str">
         <f t="shared" si="50"/>
         <v>Under</v>
       </c>
-      <c r="AG87" s="27">
+      <c r="AG87" s="34">
         <f t="shared" si="51"/>
         <v>0.8</v>
       </c>
-      <c r="AH87" s="27">
+      <c r="AH87" s="34">
         <f t="shared" si="63"/>
         <v>7.1583760075227927</v>
       </c>
-      <c r="AI87" s="27">
+      <c r="AI87" s="34">
         <f t="shared" si="64"/>
         <v>7.5061697827570359</v>
       </c>
-      <c r="AJ87" s="27">
+      <c r="AJ87" s="34">
         <f t="shared" si="65"/>
         <v>6.8105822322885494</v>
       </c>
-      <c r="AK87" s="27">
+      <c r="AK87" s="34">
         <f t="shared" si="52"/>
         <v>4</v>
       </c>
-      <c r="AL87" s="27">
+      <c r="AL87" s="34">
         <f t="shared" si="53"/>
         <v>-0.14999999999999947</v>
       </c>
-      <c r="AM87" s="27">
+      <c r="AM87" s="34">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="AN87" s="27">
+      <c r="AN87" s="34">
         <f t="shared" si="55"/>
         <v>5</v>
       </c>
-      <c r="AO87" s="27">
+      <c r="AO87" s="34">
         <f t="shared" si="56"/>
         <v>2.5</v>
       </c>
-      <c r="AP87" s="27">
+      <c r="AP87" s="34">
         <f t="shared" si="66"/>
         <v>6.5</v>
       </c>
-      <c r="AQ87" s="26"/>
+      <c r="AQ87" s="33">
+        <v>3</v>
+      </c>
       <c r="AT87"/>
     </row>
     <row r="88" spans="4:46" x14ac:dyDescent="0.3">
@@ -10977,87 +11032,91 @@
       <c r="U88" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="V88" s="26" t="str">
+      <c r="V88" s="33" t="str">
         <f t="shared" si="48"/>
         <v>NYM</v>
       </c>
-      <c r="W88" s="27">
+      <c r="W88" s="34">
         <f t="shared" si="49"/>
         <v>0.8</v>
       </c>
-      <c r="X88" s="27">
+      <c r="X88" s="34">
         <f t="shared" si="58"/>
         <v>4</v>
       </c>
-      <c r="Y88" s="27">
+      <c r="Y88" s="34">
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="Z88" s="27">
+      <c r="Z88" s="34">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="AA88" s="27">
+      <c r="AA88" s="34">
         <f t="shared" si="67"/>
         <v>-5</v>
       </c>
-      <c r="AB88" s="27">
+      <c r="AB88" s="34">
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="AC88" s="27">
+      <c r="AC88" s="34">
         <f t="shared" si="62"/>
         <v>4</v>
       </c>
-      <c r="AD88" s="27"/>
+      <c r="AD88" s="34" t="s">
+        <v>148</v>
+      </c>
       <c r="AE88" s="26">
         <v>8.5</v>
       </c>
-      <c r="AF88" s="26" t="str">
+      <c r="AF88" s="31" t="str">
         <f t="shared" si="50"/>
         <v>Under</v>
       </c>
-      <c r="AG88" s="27">
+      <c r="AG88" s="32">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
-      <c r="AH88" s="27">
+      <c r="AH88" s="32">
         <f t="shared" si="63"/>
         <v>8.0312315770391951</v>
       </c>
-      <c r="AI88" s="27">
+      <c r="AI88" s="32">
         <f t="shared" si="64"/>
         <v>8.2966858018757836</v>
       </c>
-      <c r="AJ88" s="27">
+      <c r="AJ88" s="32">
         <f t="shared" si="65"/>
         <v>7.7657773522026057</v>
       </c>
-      <c r="AK88" s="27">
+      <c r="AK88" s="32">
         <f t="shared" si="52"/>
         <v>5</v>
       </c>
-      <c r="AL88" s="27">
+      <c r="AL88" s="32">
         <f t="shared" si="53"/>
         <v>-0.35000000000000142</v>
       </c>
-      <c r="AM88" s="27">
+      <c r="AM88" s="32">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="AN88" s="27">
+      <c r="AN88" s="32">
         <f t="shared" si="55"/>
         <v>13</v>
       </c>
-      <c r="AO88" s="27">
+      <c r="AO88" s="32">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AP88" s="27">
+      <c r="AP88" s="32">
         <f t="shared" si="66"/>
         <v>5</v>
       </c>
-      <c r="AQ88" s="26"/>
+      <c r="AQ88" s="31">
+        <v>10</v>
+      </c>
       <c r="AT88"/>
     </row>
     <row r="89" spans="4:46" x14ac:dyDescent="0.3">
@@ -11125,87 +11184,91 @@
       <c r="U89" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="V89" s="26" t="str">
+      <c r="V89" s="33" t="str">
         <f t="shared" si="48"/>
         <v>MIL</v>
       </c>
-      <c r="W89" s="27">
+      <c r="W89" s="34">
         <f t="shared" si="49"/>
         <v>0.8</v>
       </c>
-      <c r="X89" s="27">
+      <c r="X89" s="34">
         <f t="shared" si="58"/>
         <v>4</v>
       </c>
-      <c r="Y89" s="27">
+      <c r="Y89" s="34">
         <f t="shared" si="59"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="Z89" s="27">
+      <c r="Z89" s="34">
         <f t="shared" si="60"/>
         <v>0.5</v>
       </c>
-      <c r="AA89" s="27">
+      <c r="AA89" s="34">
         <f t="shared" si="67"/>
         <v>-1.2000000000000002</v>
       </c>
-      <c r="AB89" s="27">
+      <c r="AB89" s="34">
         <f t="shared" si="61"/>
         <v>0.5</v>
       </c>
-      <c r="AC89" s="27">
+      <c r="AC89" s="34">
         <f t="shared" si="62"/>
         <v>5</v>
       </c>
-      <c r="AD89" s="27"/>
+      <c r="AD89" s="34" t="s">
+        <v>147</v>
+      </c>
       <c r="AE89" s="26">
         <v>8.5</v>
       </c>
-      <c r="AF89" s="26" t="str">
+      <c r="AF89" s="33" t="str">
         <f t="shared" si="50"/>
         <v>Over</v>
       </c>
-      <c r="AG89" s="27">
+      <c r="AG89" s="34">
         <f t="shared" si="51"/>
         <v>0.8</v>
       </c>
-      <c r="AH89" s="27">
+      <c r="AH89" s="34">
         <f t="shared" si="63"/>
         <v>9.0545932407212657</v>
       </c>
-      <c r="AI89" s="27">
+      <c r="AI89" s="34">
         <f t="shared" si="64"/>
         <v>9.8286625823448865</v>
       </c>
-      <c r="AJ89" s="27">
+      <c r="AJ89" s="34">
         <f t="shared" si="65"/>
         <v>8.2805238990976431</v>
       </c>
-      <c r="AK89" s="27">
+      <c r="AK89" s="34">
         <f t="shared" si="52"/>
         <v>4</v>
       </c>
-      <c r="AL89" s="27">
+      <c r="AL89" s="34">
         <f t="shared" si="53"/>
         <v>0.25</v>
       </c>
-      <c r="AM89" s="27">
+      <c r="AM89" s="34">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="AN89" s="27">
+      <c r="AN89" s="34">
         <f t="shared" si="55"/>
         <v>9.6000000000000014</v>
       </c>
-      <c r="AO89" s="27">
+      <c r="AO89" s="34">
         <f t="shared" si="56"/>
         <v>1.25</v>
       </c>
-      <c r="AP89" s="27">
+      <c r="AP89" s="34">
         <f t="shared" si="66"/>
         <v>5.25</v>
       </c>
-      <c r="AQ89" s="26"/>
+      <c r="AQ89" s="33">
+        <v>9</v>
+      </c>
       <c r="AT89"/>
     </row>
     <row r="90" spans="4:46" x14ac:dyDescent="0.3">
@@ -11273,87 +11336,91 @@
       <c r="U90" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="V90" s="28" t="str">
+      <c r="V90" s="33" t="str">
         <f t="shared" si="48"/>
         <v>NYY</v>
       </c>
-      <c r="W90" s="31">
+      <c r="W90" s="34">
         <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="X90" s="31">
+      <c r="X90" s="34">
         <f t="shared" si="58"/>
         <v>5</v>
       </c>
-      <c r="Y90" s="31">
+      <c r="Y90" s="34">
         <f t="shared" si="59"/>
         <v>-1.5499999999999989</v>
       </c>
-      <c r="Z90" s="31">
+      <c r="Z90" s="34">
         <f t="shared" si="60"/>
         <v>2.5</v>
       </c>
-      <c r="AA90" s="31">
+      <c r="AA90" s="34">
         <f t="shared" si="67"/>
         <v>-0.99999999999999956</v>
       </c>
-      <c r="AB90" s="31">
+      <c r="AB90" s="34">
         <f t="shared" si="61"/>
         <v>1.5</v>
       </c>
-      <c r="AC90" s="31">
+      <c r="AC90" s="34">
         <f t="shared" si="62"/>
         <v>9</v>
       </c>
-      <c r="AD90" s="27"/>
+      <c r="AD90" s="34" t="s">
+        <v>149</v>
+      </c>
       <c r="AE90" s="26">
         <v>9.5</v>
       </c>
-      <c r="AF90" s="26" t="str">
+      <c r="AF90" s="33" t="str">
         <f t="shared" si="50"/>
         <v>Over</v>
       </c>
-      <c r="AG90" s="27">
+      <c r="AG90" s="34">
         <f t="shared" si="51"/>
         <v>0.6</v>
       </c>
-      <c r="AH90" s="27">
+      <c r="AH90" s="34">
         <f t="shared" si="63"/>
         <v>10.444282703456238</v>
       </c>
-      <c r="AI90" s="27">
+      <c r="AI90" s="34">
         <f t="shared" si="64"/>
         <v>11.843303740731765</v>
       </c>
-      <c r="AJ90" s="27">
+      <c r="AJ90" s="34">
         <f t="shared" si="65"/>
         <v>9.0452616661807124</v>
       </c>
-      <c r="AK90" s="27">
+      <c r="AK90" s="34">
         <f t="shared" si="52"/>
         <v>3</v>
       </c>
-      <c r="AL90" s="27">
+      <c r="AL90" s="34">
         <f t="shared" si="53"/>
         <v>0.84999999999999964</v>
       </c>
-      <c r="AM90" s="27">
+      <c r="AM90" s="34">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="AN90" s="27">
+      <c r="AN90" s="34">
         <f t="shared" si="55"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="AO90" s="27">
+      <c r="AO90" s="34">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AP90" s="27">
+      <c r="AP90" s="34">
         <f t="shared" si="66"/>
         <v>3</v>
       </c>
-      <c r="AQ90" s="26"/>
+      <c r="AQ90" s="33">
+        <v>12</v>
+      </c>
       <c r="AT90"/>
     </row>
     <row r="91" spans="4:46" x14ac:dyDescent="0.3">
@@ -11421,87 +11488,91 @@
       <c r="U91" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="V91" s="26" t="str">
+      <c r="V91" s="31" t="str">
         <f t="shared" si="48"/>
         <v>LAA</v>
       </c>
-      <c r="W91" s="27">
+      <c r="W91" s="32">
         <f t="shared" si="49"/>
         <v>0.8</v>
       </c>
-      <c r="X91" s="27">
+      <c r="X91" s="32">
         <f t="shared" si="58"/>
         <v>4</v>
       </c>
-      <c r="Y91" s="27">
+      <c r="Y91" s="32">
         <f t="shared" si="59"/>
         <v>0.375</v>
       </c>
-      <c r="Z91" s="27">
+      <c r="Z91" s="32">
         <f t="shared" si="60"/>
         <v>1</v>
       </c>
-      <c r="AA91" s="27">
+      <c r="AA91" s="32">
         <f t="shared" si="67"/>
         <v>-3.5</v>
       </c>
-      <c r="AB91" s="27">
+      <c r="AB91" s="32">
         <f t="shared" si="61"/>
         <v>1</v>
       </c>
-      <c r="AC91" s="27">
+      <c r="AC91" s="32">
         <f t="shared" si="62"/>
         <v>6</v>
       </c>
-      <c r="AD91" s="27"/>
+      <c r="AD91" s="32" t="s">
+        <v>155</v>
+      </c>
       <c r="AE91" s="26">
         <v>8.5</v>
       </c>
-      <c r="AF91" s="26" t="str">
+      <c r="AF91" s="33" t="str">
         <f t="shared" si="50"/>
         <v>Over</v>
       </c>
-      <c r="AG91" s="27">
+      <c r="AG91" s="34">
         <f t="shared" si="51"/>
         <v>0.6</v>
       </c>
-      <c r="AH91" s="27">
+      <c r="AH91" s="34">
         <f t="shared" si="63"/>
         <v>8.7772998209411455</v>
       </c>
-      <c r="AI91" s="27">
+      <c r="AI91" s="34">
         <f t="shared" si="64"/>
         <v>9.5230778415990045</v>
       </c>
-      <c r="AJ91" s="27">
+      <c r="AJ91" s="34">
         <f t="shared" si="65"/>
         <v>8.0315218002832847</v>
       </c>
-      <c r="AK91" s="27">
+      <c r="AK91" s="34">
         <f t="shared" si="52"/>
         <v>3</v>
       </c>
-      <c r="AL91" s="27">
+      <c r="AL91" s="34">
         <f t="shared" si="53"/>
         <v>0.42500000000000071</v>
       </c>
-      <c r="AM91" s="27">
+      <c r="AM91" s="34">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="AN91" s="27">
+      <c r="AN91" s="34">
         <f t="shared" si="55"/>
         <v>6.5</v>
       </c>
-      <c r="AO91" s="27">
+      <c r="AO91" s="34">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AP91" s="27">
+      <c r="AP91" s="34">
         <f t="shared" si="66"/>
         <v>3</v>
       </c>
-      <c r="AQ91" s="26"/>
+      <c r="AQ91" s="33">
+        <v>11</v>
+      </c>
       <c r="AT91"/>
     </row>
     <row r="92" spans="4:46" x14ac:dyDescent="0.3">
@@ -11569,87 +11640,91 @@
       <c r="U92" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="V92" s="28" t="str">
+      <c r="V92" s="31" t="str">
         <f t="shared" si="48"/>
         <v>SFG</v>
       </c>
-      <c r="W92" s="31">
+      <c r="W92" s="32">
         <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="X92" s="31">
+      <c r="X92" s="32">
         <f t="shared" si="58"/>
         <v>5</v>
       </c>
-      <c r="Y92" s="31">
+      <c r="Y92" s="32">
         <f t="shared" si="59"/>
         <v>1.1750000000000007</v>
       </c>
-      <c r="Z92" s="31">
+      <c r="Z92" s="32">
         <f t="shared" si="60"/>
         <v>2</v>
       </c>
-      <c r="AA92" s="31">
+      <c r="AA92" s="32">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="AB92" s="31">
+      <c r="AB92" s="32">
         <f t="shared" si="61"/>
         <v>2</v>
       </c>
-      <c r="AC92" s="31">
+      <c r="AC92" s="32">
         <f t="shared" si="62"/>
         <v>9</v>
       </c>
-      <c r="AD92" s="27"/>
+      <c r="AD92" s="32" t="s">
+        <v>134</v>
+      </c>
       <c r="AE92" s="26">
         <v>7.5</v>
       </c>
-      <c r="AF92" s="26" t="str">
+      <c r="AF92" s="33" t="str">
         <f t="shared" si="50"/>
         <v>Over</v>
       </c>
-      <c r="AG92" s="27">
+      <c r="AG92" s="34">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
-      <c r="AH92" s="27">
+      <c r="AH92" s="34">
         <f t="shared" si="63"/>
         <v>8.725045671194378</v>
       </c>
-      <c r="AI92" s="27">
+      <c r="AI92" s="34">
         <f t="shared" si="64"/>
         <v>9.7551548290440362</v>
       </c>
-      <c r="AJ92" s="27">
+      <c r="AJ92" s="34">
         <f t="shared" si="65"/>
         <v>7.6949365133447198</v>
       </c>
-      <c r="AK92" s="27">
+      <c r="AK92" s="34">
         <f t="shared" si="52"/>
         <v>5</v>
       </c>
-      <c r="AL92" s="27">
+      <c r="AL92" s="34">
         <f t="shared" si="53"/>
         <v>1.4250000000000007</v>
       </c>
-      <c r="AM92" s="27">
+      <c r="AM92" s="34">
         <f t="shared" si="54"/>
         <v>1.25</v>
       </c>
-      <c r="AN92" s="27">
+      <c r="AN92" s="34">
         <f t="shared" si="55"/>
         <v>5.2</v>
       </c>
-      <c r="AO92" s="27">
+      <c r="AO92" s="34">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AP92" s="27">
+      <c r="AP92" s="34">
         <f t="shared" si="66"/>
         <v>6.25</v>
       </c>
-      <c r="AQ92" s="26"/>
+      <c r="AQ92" s="33">
+        <v>15</v>
+      </c>
       <c r="AT92"/>
     </row>
     <row r="93" spans="4:46" x14ac:dyDescent="0.3">
@@ -14129,7 +14204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A25B42-505B-49FE-9B19-31E774579555}">
   <dimension ref="A1:BO31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="R2" sqref="R2:R32"/>
     </sheetView>
   </sheetViews>
